--- a/biology/Botanique/Cotinus_obovatus/Cotinus_obovatus.xlsx
+++ b/biology/Botanique/Cotinus_obovatus/Cotinus_obovatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbre à perruques américain, Buisson de fumée américain
 Cotinus obovatus, l’Arbre à perruques américain ou le Buisson de fumée américain, est une espèce de plantes à fleurs de la famille des Anacardiaceae.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,9 +552,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon se rencontre aux États-Unis[1]. Introduit par ailleurs comme plante ornementale.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon se rencontre aux États-Unis. Introduit par ailleurs comme plante ornementale.
 </t>
         </is>
       </c>
@@ -569,11 +585,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Cotinus obovatus Raf.[2],[3].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Buisson de fumée américain[2], arbre à perruques américain[4].
-Cotinus obovatus a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Cotinus obovatus Raf.,.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Buisson de fumée américain, arbre à perruques américain.
+Cotinus obovatus a pour synonymes :
 Cotinus americanus Nutt.
 Cotinus cotinoides (Nutt. ex Chapm.) Britton
 Cotinus retusus Raf.
@@ -581,9 +599,43 @@
 Rhus cotinoides Nutt.
 Rhus cotinoides Nutt. ex Chapm.
 Rhus cotinoides Nutt. ex J.G.Cooper
-Rhus cotinus Torr. &amp; A.Gray
-Publication originale
-(la) C. S. Rafinesque, Autikon Botanikon, Philadelphie, 1840, 200 p. (lire en ligne), p. 82.</t>
+Rhus cotinus Torr. &amp; A.Gray</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cotinus_obovatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cotinus_obovatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(la) C. S. Rafinesque, Autikon Botanikon, Philadelphie, 1840, 200 p. (lire en ligne), p. 82.</t>
         </is>
       </c>
     </row>
